--- a/app/tables/selects/forms/selects/selects.xlsx
+++ b/app/tables/selects/forms/selects/selects.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3460" windowWidth="40680" windowHeight="20400"/>
+    <workbookView xWindow="7580" yWindow="3100" windowWidth="38160" windowHeight="21120"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="218">
   <si>
     <t>comments</t>
   </si>
@@ -565,15 +565,6 @@
     <t>sex</t>
   </si>
   <si>
-    <t>specialTemplateTest</t>
-  </si>
-  <si>
-    <t>This is a custom template that uses D3.js to plot an age and weight on a growth chart:</t>
-  </si>
-  <si>
-    <t>ageWeightPlot.handlebars</t>
-  </si>
-  <si>
     <t>The following data will be used to generate a graph.</t>
   </si>
   <si>
@@ -592,9 +583,6 @@
     <t>constraint_message</t>
   </si>
   <si>
-    <t>templatePath</t>
-  </si>
-  <si>
     <t>male</t>
   </si>
   <si>
@@ -638,6 +626,71 @@
   </si>
   <si>
     <t>Teal birds are very unique.  Please confirm that you saw a &lt;span style="color:aqua;"&gt;teal&lt;/span&gt; bird.</t>
+  </si>
+  <si>
+    <t>linegraph</t>
+  </si>
+  <si>
+    <t>linegraph_csv</t>
+  </si>
+  <si>
+    <t>"linegraph.csv"</t>
+  </si>
+  <si>
+    <t>_.map(context, function(place){
+return place;
+})</t>
+  </si>
+  <si>
+    <t>selected(data('sex'), 'male')</t>
+  </si>
+  <si>
+    <t>male_linegraph_csv</t>
+  </si>
+  <si>
+    <t>female_linegraph_csv</t>
+  </si>
+  <si>
+    <t>selected(data('sex'), 'female')</t>
+  </si>
+  <si>
+    <t>"maleLinegraph.csv"</t>
+  </si>
+  <si>
+    <t>"femaleLinegraph.csv"</t>
+  </si>
+  <si>
+    <t>x_axis_label</t>
+  </si>
+  <si>
+    <t>y_axis_label</t>
+  </si>
+  <si>
+    <t>age(yrs)</t>
+  </si>
+  <si>
+    <t>x_value</t>
+  </si>
+  <si>
+    <t>y_value</t>
+  </si>
+  <si>
+    <t>weight(oz)</t>
+  </si>
+  <si>
+    <t>Male Bird Age vs. Weight Graph</t>
+  </si>
+  <si>
+    <t>Female Bird Age vs. Weight Graph</t>
+  </si>
+  <si>
+    <t>legend_text</t>
+  </si>
+  <si>
+    <t>female median weight for age</t>
+  </si>
+  <si>
+    <t>male median weight for age</t>
   </si>
 </sst>
 </file>
@@ -692,7 +745,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="103">
+  <cellStyleXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -796,8 +849,34 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -821,8 +900,11 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="103">
+  <cellStyles count="129">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -874,6 +956,19 @@
     <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -925,6 +1020,19 @@
     <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1224,10 +1332,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P67"/>
+  <dimension ref="A1:U72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D26" workbookViewId="0">
-      <selection activeCell="K62" sqref="K62"/>
+    <sheetView tabSelected="1" topLeftCell="J22" workbookViewId="0">
+      <selection activeCell="U72" sqref="U72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -1243,7 +1351,7 @@
     <col min="10" max="10" width="25.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" customHeight="1">
+    <row r="1" spans="1:21" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1284,23 +1392,38 @@
         <v>146</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="15.75" customHeight="1">
+        <v>181</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>208</v>
+      </c>
+      <c r="R1" t="s">
+        <v>210</v>
+      </c>
+      <c r="S1" t="s">
+        <v>211</v>
+      </c>
+      <c r="T1" t="s">
+        <v>215</v>
+      </c>
+      <c r="U1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="15.75" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="1:16" ht="15.75" customHeight="1">
+    <row r="3" spans="1:21" ht="15.75" customHeight="1">
       <c r="A3" s="2"/>
       <c r="D3" t="s">
         <v>131</v>
@@ -1313,7 +1436,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15.75" customHeight="1">
+    <row r="4" spans="1:21" ht="15.75" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1330,7 +1453,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15.75" customHeight="1">
+    <row r="5" spans="1:21" ht="15.75" customHeight="1">
       <c r="A5" s="2"/>
       <c r="D5" s="6" t="s">
         <v>91</v>
@@ -1348,7 +1471,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15.75" customHeight="1">
+    <row r="6" spans="1:21" ht="15.75" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" s="4" t="s">
         <v>14</v>
@@ -1356,20 +1479,20 @@
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:16" ht="15.75" customHeight="1">
+    <row r="7" spans="1:21" ht="15.75" customHeight="1">
       <c r="A7" s="2"/>
       <c r="D7" s="6" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="E7" s="5"/>
       <c r="G7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="H7" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="15.75" customHeight="1">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="15.75" customHeight="1">
       <c r="A8" s="2"/>
       <c r="D8" s="6" t="s">
         <v>135</v>
@@ -1382,7 +1505,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15.75" customHeight="1">
+    <row r="9" spans="1:21" ht="15.75" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -1390,7 +1513,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="15.75" customHeight="1">
+    <row r="10" spans="1:21" ht="15.75" customHeight="1">
       <c r="A10" s="2"/>
       <c r="D10" s="6" t="s">
         <v>84</v>
@@ -1405,7 +1528,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="15.75" customHeight="1">
+    <row r="11" spans="1:21" ht="15.75" customHeight="1">
       <c r="A11" s="2"/>
       <c r="B11" s="4" t="s">
         <v>73</v>
@@ -1414,7 +1537,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="15.75" customHeight="1">
+    <row r="12" spans="1:21" ht="15.75" customHeight="1">
       <c r="A12" s="2"/>
       <c r="D12" t="s">
         <v>11</v>
@@ -1426,13 +1549,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="15.75" customHeight="1">
+    <row r="13" spans="1:21" ht="15.75" customHeight="1">
       <c r="A13" s="2"/>
       <c r="B13" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="15.75" customHeight="1">
+    <row r="14" spans="1:21" ht="15.75" customHeight="1">
       <c r="A14" s="2"/>
       <c r="B14" s="4" t="s">
         <v>73</v>
@@ -1441,7 +1564,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="15.75" customHeight="1">
+    <row r="15" spans="1:21" ht="15.75" customHeight="1">
       <c r="A15" s="2"/>
       <c r="D15" t="s">
         <v>11</v>
@@ -1453,7 +1576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="15.75" customHeight="1">
+    <row r="16" spans="1:21" ht="15.75" customHeight="1">
       <c r="A16" s="2"/>
       <c r="B16" s="4" t="s">
         <v>74</v>
@@ -1684,7 +1807,7 @@
         <v>15</v>
       </c>
       <c r="H40" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="15.75" customHeight="1">
@@ -1696,10 +1819,10 @@
         <v>43</v>
       </c>
       <c r="G41" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="H41" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="15.75" customHeight="1">
@@ -1716,13 +1839,13 @@
         <v>16</v>
       </c>
       <c r="D43" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="G43" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="H43" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="K43" t="b">
         <v>1</v>
@@ -1979,7 +2102,7 @@
       </c>
       <c r="E62" s="7"/>
       <c r="H62" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="I62" s="5"/>
       <c r="K62" t="b">
@@ -1997,7 +2120,7 @@
         <v>168</v>
       </c>
       <c r="H63" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I63" t="s">
         <v>169</v>
@@ -2020,11 +2143,11 @@
         <v>173</v>
       </c>
       <c r="H64" s="6" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="I64" s="5"/>
     </row>
-    <row r="65" spans="1:16" ht="17.5" customHeight="1">
+    <row r="65" spans="1:21" ht="17.5" customHeight="1">
       <c r="A65" s="2"/>
       <c r="B65"/>
       <c r="D65" s="8" t="s">
@@ -2037,11 +2160,11 @@
         <v>175</v>
       </c>
       <c r="H65" s="6" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="I65" s="5"/>
     </row>
-    <row r="66" spans="1:16" ht="17.5" customHeight="1">
+    <row r="66" spans="1:21" ht="17.5" customHeight="1">
       <c r="A66" s="2"/>
       <c r="B66" s="7" t="s">
         <v>14</v>
@@ -2050,26 +2173,95 @@
       <c r="H66" s="5"/>
       <c r="I66" s="5"/>
     </row>
-    <row r="67" spans="1:16" ht="17.5" customHeight="1">
+    <row r="67" spans="1:21" ht="17.5" customHeight="1">
       <c r="A67" s="2"/>
-      <c r="B67"/>
-      <c r="D67" s="7" t="s">
-        <v>11</v>
+      <c r="B67" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C67" t="s">
+        <v>201</v>
       </c>
       <c r="E67" s="7"/>
-      <c r="F67" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="G67" s="7"/>
-      <c r="H67" s="5" t="s">
-        <v>177</v>
-      </c>
+      <c r="H67" s="5"/>
       <c r="I67" s="5"/>
-      <c r="K67" t="b">
+    </row>
+    <row r="68" spans="1:21" ht="12.75" customHeight="1">
+      <c r="A68" s="2"/>
+      <c r="D68" t="s">
+        <v>197</v>
+      </c>
+      <c r="E68" t="s">
+        <v>202</v>
+      </c>
+      <c r="H68" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="P68" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>212</v>
+      </c>
+      <c r="R68" t="s">
+        <v>168</v>
+      </c>
+      <c r="S68" t="s">
+        <v>173</v>
+      </c>
+      <c r="T68" t="s">
+        <v>217</v>
+      </c>
+      <c r="U68" t="b">
         <v>1</v>
       </c>
-      <c r="P67" s="7" t="s">
-        <v>178</v>
+    </row>
+    <row r="69" spans="1:21" ht="12.75" customHeight="1">
+      <c r="A69" s="2"/>
+      <c r="B69" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" ht="12.75" customHeight="1">
+      <c r="A70" s="2"/>
+      <c r="B70" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C70" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" ht="12.75" customHeight="1">
+      <c r="D71" t="s">
+        <v>197</v>
+      </c>
+      <c r="E71" t="s">
+        <v>203</v>
+      </c>
+      <c r="H71" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="P71" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>212</v>
+      </c>
+      <c r="R71" t="s">
+        <v>168</v>
+      </c>
+      <c r="S71" t="s">
+        <v>173</v>
+      </c>
+      <c r="T71" t="s">
+        <v>216</v>
+      </c>
+      <c r="U71" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" ht="12.75" customHeight="1">
+      <c r="B72" s="4" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -2271,10 +2463,10 @@
         <v>43</v>
       </c>
       <c r="B18" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D18" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="16.75" customHeight="1">
@@ -2282,10 +2474,10 @@
         <v>43</v>
       </c>
       <c r="B19" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D19" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="16.75" customHeight="1"/>
@@ -2393,10 +2585,10 @@
         <v>174</v>
       </c>
       <c r="B32" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D32" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="12.75" customHeight="1">
@@ -2404,10 +2596,10 @@
         <v>174</v>
       </c>
       <c r="B33" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D33" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -2423,10 +2615,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -2506,7 +2698,48 @@
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16.25" customHeight="1"/>
+    <row r="6" spans="1:4" ht="16.25" customHeight="1">
+      <c r="A6" t="s">
+        <v>198</v>
+      </c>
+      <c r="B6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" t="s">
+        <v>199</v>
+      </c>
+      <c r="D6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="12.75" customHeight="1">
+      <c r="A7" t="s">
+        <v>202</v>
+      </c>
+      <c r="B7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7" t="s">
+        <v>205</v>
+      </c>
+      <c r="D7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="12.75" customHeight="1">
+      <c r="A8" t="s">
+        <v>203</v>
+      </c>
+      <c r="B8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C8" t="s">
+        <v>206</v>
+      </c>
+      <c r="D8" t="s">
+        <v>200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/app/tables/selects/forms/selects/selects.xlsx
+++ b/app/tables/selects/forms/selects/selects.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="220">
   <si>
     <t>comments</t>
   </si>
@@ -691,6 +691,12 @@
   </si>
   <si>
     <t>male median weight for age</t>
+  </si>
+  <si>
+    <t>Record Location</t>
+  </si>
+  <si>
+    <t>buttonLabel</t>
   </si>
 </sst>
 </file>
@@ -1332,10 +1338,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U72"/>
+  <dimension ref="A1:V72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J22" workbookViewId="0">
-      <selection activeCell="U72" sqref="U72"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="V1" sqref="V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -1351,7 +1357,7 @@
     <col min="10" max="10" width="25.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15.75" customHeight="1">
+    <row r="1" spans="1:22" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1415,15 +1421,18 @@
       <c r="U1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="15.75" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="1:21" ht="15.75" customHeight="1">
+    <row r="3" spans="1:22" ht="15.75" customHeight="1">
       <c r="A3" s="2"/>
       <c r="D3" t="s">
         <v>131</v>
@@ -1436,7 +1445,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="15.75" customHeight="1">
+    <row r="4" spans="1:22" ht="15.75" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1453,7 +1462,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="15.75" customHeight="1">
+    <row r="5" spans="1:22" ht="15.75" customHeight="1">
       <c r="A5" s="2"/>
       <c r="D5" s="6" t="s">
         <v>91</v>
@@ -1471,7 +1480,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="15.75" customHeight="1">
+    <row r="6" spans="1:22" ht="15.75" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" s="4" t="s">
         <v>14</v>
@@ -1479,7 +1488,7 @@
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:21" ht="15.75" customHeight="1">
+    <row r="7" spans="1:22" ht="15.75" customHeight="1">
       <c r="A7" s="2"/>
       <c r="D7" s="6" t="s">
         <v>192</v>
@@ -1491,8 +1500,11 @@
       <c r="H7" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V7" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="15.75" customHeight="1">
       <c r="A8" s="2"/>
       <c r="D8" s="6" t="s">
         <v>135</v>
@@ -1505,7 +1517,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="15.75" customHeight="1">
+    <row r="9" spans="1:22" ht="15.75" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -1513,7 +1525,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="15.75" customHeight="1">
+    <row r="10" spans="1:22" ht="15.75" customHeight="1">
       <c r="A10" s="2"/>
       <c r="D10" s="6" t="s">
         <v>84</v>
@@ -1528,7 +1540,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="15.75" customHeight="1">
+    <row r="11" spans="1:22" ht="15.75" customHeight="1">
       <c r="A11" s="2"/>
       <c r="B11" s="4" t="s">
         <v>73</v>
@@ -1537,7 +1549,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="15.75" customHeight="1">
+    <row r="12" spans="1:22" ht="15.75" customHeight="1">
       <c r="A12" s="2"/>
       <c r="D12" t="s">
         <v>11</v>
@@ -1549,13 +1561,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="15.75" customHeight="1">
+    <row r="13" spans="1:22" ht="15.75" customHeight="1">
       <c r="A13" s="2"/>
       <c r="B13" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="15.75" customHeight="1">
+    <row r="14" spans="1:22" ht="15.75" customHeight="1">
       <c r="A14" s="2"/>
       <c r="B14" s="4" t="s">
         <v>73</v>
@@ -1564,7 +1576,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="15.75" customHeight="1">
+    <row r="15" spans="1:22" ht="15.75" customHeight="1">
       <c r="A15" s="2"/>
       <c r="D15" t="s">
         <v>11</v>
@@ -1576,7 +1588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="15.75" customHeight="1">
+    <row r="16" spans="1:22" ht="15.75" customHeight="1">
       <c r="A16" s="2"/>
       <c r="B16" s="4" t="s">
         <v>74</v>

--- a/app/tables/selects/forms/selects/selects.xlsx
+++ b/app/tables/selects/forms/selects/selects.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3460" windowWidth="40680" windowHeight="20400"/>
+    <workbookView xWindow="7580" yWindow="3100" windowWidth="38160" windowHeight="21120"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="220">
   <si>
     <t>comments</t>
   </si>
@@ -565,15 +565,6 @@
     <t>sex</t>
   </si>
   <si>
-    <t>specialTemplateTest</t>
-  </si>
-  <si>
-    <t>This is a custom template that uses D3.js to plot an age and weight on a growth chart:</t>
-  </si>
-  <si>
-    <t>ageWeightPlot.handlebars</t>
-  </si>
-  <si>
     <t>The following data will be used to generate a graph.</t>
   </si>
   <si>
@@ -592,9 +583,6 @@
     <t>constraint_message</t>
   </si>
   <si>
-    <t>templatePath</t>
-  </si>
-  <si>
     <t>male</t>
   </si>
   <si>
@@ -638,6 +626,77 @@
   </si>
   <si>
     <t>Teal birds are very unique.  Please confirm that you saw a &lt;span style="color:aqua;"&gt;teal&lt;/span&gt; bird.</t>
+  </si>
+  <si>
+    <t>linegraph</t>
+  </si>
+  <si>
+    <t>linegraph_csv</t>
+  </si>
+  <si>
+    <t>"linegraph.csv"</t>
+  </si>
+  <si>
+    <t>_.map(context, function(place){
+return place;
+})</t>
+  </si>
+  <si>
+    <t>selected(data('sex'), 'male')</t>
+  </si>
+  <si>
+    <t>male_linegraph_csv</t>
+  </si>
+  <si>
+    <t>female_linegraph_csv</t>
+  </si>
+  <si>
+    <t>selected(data('sex'), 'female')</t>
+  </si>
+  <si>
+    <t>"maleLinegraph.csv"</t>
+  </si>
+  <si>
+    <t>"femaleLinegraph.csv"</t>
+  </si>
+  <si>
+    <t>x_axis_label</t>
+  </si>
+  <si>
+    <t>y_axis_label</t>
+  </si>
+  <si>
+    <t>age(yrs)</t>
+  </si>
+  <si>
+    <t>x_value</t>
+  </si>
+  <si>
+    <t>y_value</t>
+  </si>
+  <si>
+    <t>weight(oz)</t>
+  </si>
+  <si>
+    <t>Male Bird Age vs. Weight Graph</t>
+  </si>
+  <si>
+    <t>Female Bird Age vs. Weight Graph</t>
+  </si>
+  <si>
+    <t>legend_text</t>
+  </si>
+  <si>
+    <t>female median weight for age</t>
+  </si>
+  <si>
+    <t>male median weight for age</t>
+  </si>
+  <si>
+    <t>Record Location</t>
+  </si>
+  <si>
+    <t>buttonLabel</t>
   </si>
 </sst>
 </file>
@@ -692,7 +751,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="103">
+  <cellStyleXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -796,8 +855,34 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -821,8 +906,11 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="103">
+  <cellStyles count="129">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -874,6 +962,19 @@
     <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -925,6 +1026,19 @@
     <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1224,10 +1338,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P67"/>
+  <dimension ref="A1:V72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D26" workbookViewId="0">
-      <selection activeCell="K62" sqref="K62"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="V1" sqref="V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -1243,7 +1357,7 @@
     <col min="10" max="10" width="25.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" customHeight="1">
+    <row r="1" spans="1:22" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1284,23 +1398,41 @@
         <v>146</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="15.75" customHeight="1">
+        <v>181</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>208</v>
+      </c>
+      <c r="R1" t="s">
+        <v>210</v>
+      </c>
+      <c r="S1" t="s">
+        <v>211</v>
+      </c>
+      <c r="T1" t="s">
+        <v>215</v>
+      </c>
+      <c r="U1" t="s">
+        <v>79</v>
+      </c>
+      <c r="V1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="15.75" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="1:16" ht="15.75" customHeight="1">
+    <row r="3" spans="1:22" ht="15.75" customHeight="1">
       <c r="A3" s="2"/>
       <c r="D3" t="s">
         <v>131</v>
@@ -1313,7 +1445,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15.75" customHeight="1">
+    <row r="4" spans="1:22" ht="15.75" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1330,7 +1462,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15.75" customHeight="1">
+    <row r="5" spans="1:22" ht="15.75" customHeight="1">
       <c r="A5" s="2"/>
       <c r="D5" s="6" t="s">
         <v>91</v>
@@ -1348,7 +1480,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15.75" customHeight="1">
+    <row r="6" spans="1:22" ht="15.75" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" s="4" t="s">
         <v>14</v>
@@ -1356,20 +1488,23 @@
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:16" ht="15.75" customHeight="1">
+    <row r="7" spans="1:22" ht="15.75" customHeight="1">
       <c r="A7" s="2"/>
       <c r="D7" s="6" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="E7" s="5"/>
       <c r="G7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="H7" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="15.75" customHeight="1">
+        <v>194</v>
+      </c>
+      <c r="V7" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="15.75" customHeight="1">
       <c r="A8" s="2"/>
       <c r="D8" s="6" t="s">
         <v>135</v>
@@ -1382,7 +1517,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15.75" customHeight="1">
+    <row r="9" spans="1:22" ht="15.75" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -1390,7 +1525,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="15.75" customHeight="1">
+    <row r="10" spans="1:22" ht="15.75" customHeight="1">
       <c r="A10" s="2"/>
       <c r="D10" s="6" t="s">
         <v>84</v>
@@ -1405,7 +1540,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="15.75" customHeight="1">
+    <row r="11" spans="1:22" ht="15.75" customHeight="1">
       <c r="A11" s="2"/>
       <c r="B11" s="4" t="s">
         <v>73</v>
@@ -1414,7 +1549,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="15.75" customHeight="1">
+    <row r="12" spans="1:22" ht="15.75" customHeight="1">
       <c r="A12" s="2"/>
       <c r="D12" t="s">
         <v>11</v>
@@ -1426,13 +1561,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="15.75" customHeight="1">
+    <row r="13" spans="1:22" ht="15.75" customHeight="1">
       <c r="A13" s="2"/>
       <c r="B13" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="15.75" customHeight="1">
+    <row r="14" spans="1:22" ht="15.75" customHeight="1">
       <c r="A14" s="2"/>
       <c r="B14" s="4" t="s">
         <v>73</v>
@@ -1441,7 +1576,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="15.75" customHeight="1">
+    <row r="15" spans="1:22" ht="15.75" customHeight="1">
       <c r="A15" s="2"/>
       <c r="D15" t="s">
         <v>11</v>
@@ -1453,7 +1588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="15.75" customHeight="1">
+    <row r="16" spans="1:22" ht="15.75" customHeight="1">
       <c r="A16" s="2"/>
       <c r="B16" s="4" t="s">
         <v>74</v>
@@ -1684,7 +1819,7 @@
         <v>15</v>
       </c>
       <c r="H40" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="15.75" customHeight="1">
@@ -1696,10 +1831,10 @@
         <v>43</v>
       </c>
       <c r="G41" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="H41" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="15.75" customHeight="1">
@@ -1716,13 +1851,13 @@
         <v>16</v>
       </c>
       <c r="D43" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="G43" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="H43" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="K43" t="b">
         <v>1</v>
@@ -1979,7 +2114,7 @@
       </c>
       <c r="E62" s="7"/>
       <c r="H62" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="I62" s="5"/>
       <c r="K62" t="b">
@@ -1997,7 +2132,7 @@
         <v>168</v>
       </c>
       <c r="H63" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I63" t="s">
         <v>169</v>
@@ -2020,11 +2155,11 @@
         <v>173</v>
       </c>
       <c r="H64" s="6" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="I64" s="5"/>
     </row>
-    <row r="65" spans="1:16" ht="17.5" customHeight="1">
+    <row r="65" spans="1:21" ht="17.5" customHeight="1">
       <c r="A65" s="2"/>
       <c r="B65"/>
       <c r="D65" s="8" t="s">
@@ -2037,11 +2172,11 @@
         <v>175</v>
       </c>
       <c r="H65" s="6" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="I65" s="5"/>
     </row>
-    <row r="66" spans="1:16" ht="17.5" customHeight="1">
+    <row r="66" spans="1:21" ht="17.5" customHeight="1">
       <c r="A66" s="2"/>
       <c r="B66" s="7" t="s">
         <v>14</v>
@@ -2050,26 +2185,95 @@
       <c r="H66" s="5"/>
       <c r="I66" s="5"/>
     </row>
-    <row r="67" spans="1:16" ht="17.5" customHeight="1">
+    <row r="67" spans="1:21" ht="17.5" customHeight="1">
       <c r="A67" s="2"/>
-      <c r="B67"/>
-      <c r="D67" s="7" t="s">
-        <v>11</v>
+      <c r="B67" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C67" t="s">
+        <v>201</v>
       </c>
       <c r="E67" s="7"/>
-      <c r="F67" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="G67" s="7"/>
-      <c r="H67" s="5" t="s">
-        <v>177</v>
-      </c>
+      <c r="H67" s="5"/>
       <c r="I67" s="5"/>
-      <c r="K67" t="b">
+    </row>
+    <row r="68" spans="1:21" ht="12.75" customHeight="1">
+      <c r="A68" s="2"/>
+      <c r="D68" t="s">
+        <v>197</v>
+      </c>
+      <c r="E68" t="s">
+        <v>202</v>
+      </c>
+      <c r="H68" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="P68" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>212</v>
+      </c>
+      <c r="R68" t="s">
+        <v>168</v>
+      </c>
+      <c r="S68" t="s">
+        <v>173</v>
+      </c>
+      <c r="T68" t="s">
+        <v>217</v>
+      </c>
+      <c r="U68" t="b">
         <v>1</v>
       </c>
-      <c r="P67" s="7" t="s">
-        <v>178</v>
+    </row>
+    <row r="69" spans="1:21" ht="12.75" customHeight="1">
+      <c r="A69" s="2"/>
+      <c r="B69" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" ht="12.75" customHeight="1">
+      <c r="A70" s="2"/>
+      <c r="B70" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C70" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" ht="12.75" customHeight="1">
+      <c r="D71" t="s">
+        <v>197</v>
+      </c>
+      <c r="E71" t="s">
+        <v>203</v>
+      </c>
+      <c r="H71" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="P71" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>212</v>
+      </c>
+      <c r="R71" t="s">
+        <v>168</v>
+      </c>
+      <c r="S71" t="s">
+        <v>173</v>
+      </c>
+      <c r="T71" t="s">
+        <v>216</v>
+      </c>
+      <c r="U71" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" ht="12.75" customHeight="1">
+      <c r="B72" s="4" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -2271,10 +2475,10 @@
         <v>43</v>
       </c>
       <c r="B18" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D18" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="16.75" customHeight="1">
@@ -2282,10 +2486,10 @@
         <v>43</v>
       </c>
       <c r="B19" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D19" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="16.75" customHeight="1"/>
@@ -2393,10 +2597,10 @@
         <v>174</v>
       </c>
       <c r="B32" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D32" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="12.75" customHeight="1">
@@ -2404,10 +2608,10 @@
         <v>174</v>
       </c>
       <c r="B33" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D33" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -2423,10 +2627,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -2506,7 +2710,48 @@
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16.25" customHeight="1"/>
+    <row r="6" spans="1:4" ht="16.25" customHeight="1">
+      <c r="A6" t="s">
+        <v>198</v>
+      </c>
+      <c r="B6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" t="s">
+        <v>199</v>
+      </c>
+      <c r="D6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="12.75" customHeight="1">
+      <c r="A7" t="s">
+        <v>202</v>
+      </c>
+      <c r="B7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7" t="s">
+        <v>205</v>
+      </c>
+      <c r="D7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="12.75" customHeight="1">
+      <c r="A8" t="s">
+        <v>203</v>
+      </c>
+      <c r="B8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C8" t="s">
+        <v>206</v>
+      </c>
+      <c r="D8" t="s">
+        <v>200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
